--- a/model/Outputs/8. Fixed RE/With PV/Output Files/50/Output_6_29.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/50/Output_6_29.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500737</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500737</v>
+        <v>16052082.46800645</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177835</v>
+        <v>3940022.790763975</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177835</v>
+        <v>3940022.790763975</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1570965302.325459</v>
+        <v>59684342.42064519</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +682,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H2" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T2" t="n">
         <v>560.964918411981</v>
@@ -761,10 +761,10 @@
         <v>322.5970075731406</v>
       </c>
       <c r="H3" t="n">
-        <v>300.2841796816783</v>
+        <v>301.8178796392513</v>
       </c>
       <c r="I3" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -916,10 +916,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G5" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H5" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H8" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1207,7 +1207,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y8" t="n">
-        <v>511.3174326828064</v>
+        <v>509.9290883898282</v>
       </c>
     </row>
     <row r="9">
@@ -1378,7 +1378,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C11" t="n">
-        <v>448.0862339500159</v>
+        <v>449.4745782429939</v>
       </c>
       <c r="D11" t="n">
         <v>410.3391557398498</v>
@@ -1438,7 +1438,7 @@
         <v>629.8510241668239</v>
       </c>
       <c r="W11" t="n">
-        <v>638.3734759809475</v>
+        <v>636.9851316879694</v>
       </c>
       <c r="X11" t="n">
         <v>592.2818334606677</v>
@@ -1502,10 +1502,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S12" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T12" t="n">
         <v>392.6911708778912</v>
@@ -1533,25 +1533,25 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T14" t="n">
-        <v>560.964918411981</v>
+        <v>559.576574119003</v>
       </c>
       <c r="U14" t="n">
         <v>648.751427201877</v>
@@ -1739,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S15" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T15" t="n">
         <v>392.6911708778912</v>
@@ -1779,16 +1779,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1864,10 +1864,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G17" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H17" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1976,10 +1976,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S18" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T18" t="n">
         <v>392.6911708778912</v>
@@ -2013,19 +2013,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H20" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T20" t="n">
         <v>560.964918411981</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S21" t="n">
         <v>408.192915058951</v>
@@ -2228,7 +2228,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W21" t="n">
-        <v>430.8394429522557</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X21" t="n">
         <v>419.8627394453875</v>
@@ -2250,19 +2250,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2450,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S24" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T24" t="n">
         <v>392.6911708778912</v>
@@ -2499,52 +2499,52 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F29" t="n">
-        <v>403.5012844150336</v>
+        <v>404.8896287080119</v>
       </c>
       <c r="G29" t="n">
         <v>397.8840054528454</v>
@@ -2854,7 +2854,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U29" t="n">
-        <v>648.751427201877</v>
+        <v>647.3630829088994</v>
       </c>
       <c r="V29" t="n">
         <v>629.8510241668239</v>
@@ -2924,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S30" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T30" t="n">
         <v>392.6911708778912</v>
@@ -3049,7 +3049,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G32" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H32" t="n">
         <v>347.8590406130752</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756762</v>
       </c>
       <c r="T32" t="n">
         <v>560.964918411981</v>
@@ -3161,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S33" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T33" t="n">
         <v>392.6911708778912</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>67.808644398718</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>97.40414414470841</v>
@@ -3398,10 +3398,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S36" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T36" t="n">
         <v>392.6911708778912</v>
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>67.808644398718</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>648.751427201877</v>
       </c>
       <c r="V38" t="n">
-        <v>628.4626798738458</v>
+        <v>629.8510241668239</v>
       </c>
       <c r="W38" t="n">
-        <v>638.3734759809475</v>
+        <v>636.9851316879694</v>
       </c>
       <c r="X38" t="n">
         <v>592.2818334606677</v>
@@ -3635,10 +3635,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S39" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T39" t="n">
         <v>392.6911708778912</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3720,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>14.39810218700126</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>67.808644398718</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3921,10 +3921,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3994,10 +3994,10 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F44" t="n">
-        <v>403.5012844150336</v>
+        <v>404.8896287080119</v>
       </c>
       <c r="G44" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H44" t="n">
         <v>347.8590406130752</v>
@@ -4158,49 +4158,49 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C2" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D2" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E2" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F2" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G2" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H2" t="n">
         <v>140.96</v>
@@ -4363,25 +4363,25 @@
         <v>7048</v>
       </c>
       <c r="S2" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T2" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U2" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V2" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W2" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X2" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y2" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="3">
@@ -4409,7 +4409,7 @@
         <v>554.3073408685043</v>
       </c>
       <c r="H3" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I3" t="n">
         <v>140.96</v>
@@ -4470,28 +4470,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="C4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="D4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="E4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="F4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="G4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="H4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="I4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="J4" t="n">
         <v>440.0999956178874</v>
@@ -4536,10 +4536,10 @@
         <v>140.96</v>
       </c>
       <c r="X4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="Y4" t="n">
-        <v>140.96</v>
+        <v>290.6133856211738</v>
       </c>
     </row>
     <row r="5">
@@ -4564,7 +4564,7 @@
         <v>892.8334361342853</v>
       </c>
       <c r="G5" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H5" t="n">
         <v>140.96</v>
@@ -4707,46 +4707,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>223.6648391925338</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="C7" t="n">
-        <v>223.6648391925338</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="D7" t="n">
-        <v>223.6648391925338</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="E7" t="n">
-        <v>223.6648391925338</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="F7" t="n">
-        <v>223.6648391925338</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="G7" t="n">
-        <v>223.6648391925338</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="H7" t="n">
-        <v>223.6648391925338</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="I7" t="n">
-        <v>223.6648391925338</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="J7" t="n">
-        <v>409.2181261040298</v>
+        <v>440.0999956178874</v>
       </c>
       <c r="K7" t="n">
-        <v>426.6131206966359</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="L7" t="n">
-        <v>426.6131206966359</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="M7" t="n">
-        <v>426.6131206966359</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="N7" t="n">
-        <v>426.6131206966359</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O7" t="n">
-        <v>426.6131206966359</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P7" t="n">
         <v>457.4949902104935</v>
@@ -4761,22 +4761,22 @@
         <v>223.6648391925338</v>
       </c>
       <c r="T7" t="n">
-        <v>223.6648391925338</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="U7" t="n">
-        <v>223.6648391925338</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="V7" t="n">
-        <v>223.6648391925338</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="W7" t="n">
-        <v>223.6648391925338</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="X7" t="n">
-        <v>223.6648391925338</v>
+        <v>290.6133856211738</v>
       </c>
       <c r="Y7" t="n">
-        <v>223.6648391925338</v>
+        <v>290.6133856211738</v>
       </c>
     </row>
     <row r="8">
@@ -4786,22 +4786,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C8" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D8" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E8" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F8" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G8" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H8" t="n">
         <v>140.96</v>
@@ -4855,7 +4855,7 @@
         <v>3582.109595665705</v>
       </c>
       <c r="Y8" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="9">
@@ -4983,7 +4983,7 @@
         <v>307.8416045893196</v>
       </c>
       <c r="O10" t="n">
-        <v>426.6131206966359</v>
+        <v>438.463966970767</v>
       </c>
       <c r="P10" t="n">
         <v>457.4949902104935</v>
@@ -5023,7 +5023,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C11" t="n">
         <v>2126.146990020859</v>
@@ -5050,7 +5050,7 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K11" t="n">
-        <v>2124.71495243113</v>
+        <v>1936.671378010443</v>
       </c>
       <c r="L11" t="n">
         <v>3681.051378010443</v>
@@ -5086,13 +5086,13 @@
         <v>4825.195766818852</v>
       </c>
       <c r="W11" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X11" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y11" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="12">
@@ -5150,7 +5150,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R12" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S12" t="n">
         <v>5159.222422432123</v>
@@ -5181,22 +5181,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H13" t="n">
         <v>140.96</v>
@@ -5287,7 +5287,7 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K14" t="n">
-        <v>2124.71495243113</v>
+        <v>1936.671378010443</v>
       </c>
       <c r="L14" t="n">
         <v>3681.051378010443</v>
@@ -5311,7 +5311,7 @@
         <v>7048</v>
       </c>
       <c r="S14" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T14" t="n">
         <v>6118.11576243671</v>
@@ -5387,7 +5387,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R15" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S15" t="n">
         <v>5159.222422432123</v>
@@ -5427,13 +5427,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="E16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H16" t="n">
         <v>140.96</v>
@@ -5512,7 +5512,7 @@
         <v>892.8334361342853</v>
       </c>
       <c r="G17" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H17" t="n">
         <v>140.96</v>
@@ -5624,7 +5624,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R18" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S18" t="n">
         <v>5159.222422432123</v>
@@ -5661,16 +5661,16 @@
         <v>307.8416045893196</v>
       </c>
       <c r="D19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G19" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H19" t="n">
         <v>140.96</v>
@@ -5734,76 +5734,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C20" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D20" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E20" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F20" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G20" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H20" t="n">
         <v>140.96</v>
       </c>
       <c r="I20" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J20" t="n">
-        <v>599.7771454756521</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K20" t="n">
-        <v>2049.12665539136</v>
+        <v>2270.648739919985</v>
       </c>
       <c r="L20" t="n">
-        <v>3681.051378010443</v>
+        <v>3188.241463236568</v>
       </c>
       <c r="M20" t="n">
-        <v>4163.230577523946</v>
+        <v>3670.420662750071</v>
       </c>
       <c r="N20" t="n">
-        <v>4728.273641396618</v>
+        <v>4235.463726622743</v>
       </c>
       <c r="O20" t="n">
-        <v>5638.428524337362</v>
+        <v>5145.618609563487</v>
       </c>
       <c r="P20" t="n">
-        <v>6474.295852434775</v>
+        <v>5981.4859376609</v>
       </c>
       <c r="Q20" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R20" t="n">
         <v>7048</v>
       </c>
       <c r="S20" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T20" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U20" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V20" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W20" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X20" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y20" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="21">
@@ -5861,19 +5861,19 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R21" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S21" t="n">
-        <v>5157.673230555786</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T21" t="n">
-        <v>4761.01548219428</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U21" t="n">
-        <v>4356.971427166837</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V21" t="n">
-        <v>3938.273783539039</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W21" t="n">
         <v>3503.082427021609</v>
@@ -5898,16 +5898,16 @@
         <v>307.8416045893196</v>
       </c>
       <c r="D22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G22" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H22" t="n">
         <v>140.96</v>
@@ -5992,31 +5992,31 @@
         <v>140.96</v>
       </c>
       <c r="I23" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J23" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K23" t="n">
-        <v>1415.008586083262</v>
+        <v>1901.586501346477</v>
       </c>
       <c r="L23" t="n">
-        <v>3159.388586083262</v>
+        <v>2819.17922466306</v>
       </c>
       <c r="M23" t="n">
-        <v>3641.567785596765</v>
+        <v>3301.358424176563</v>
       </c>
       <c r="N23" t="n">
-        <v>4206.610849469437</v>
+        <v>3866.401488049235</v>
       </c>
       <c r="O23" t="n">
-        <v>5116.765732410181</v>
+        <v>4776.556370989979</v>
       </c>
       <c r="P23" t="n">
-        <v>5952.633060507595</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q23" t="n">
-        <v>7019.147122846694</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R23" t="n">
         <v>7048</v>
@@ -6098,7 +6098,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R24" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S24" t="n">
         <v>5159.222422432123</v>
@@ -6129,22 +6129,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H25" t="n">
         <v>140.96</v>
@@ -6192,13 +6192,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="W25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="26">
@@ -6238,19 +6238,19 @@
         <v>2124.71495243113</v>
       </c>
       <c r="L26" t="n">
-        <v>3681.051378010443</v>
+        <v>3071.357825473565</v>
       </c>
       <c r="M26" t="n">
-        <v>4163.230577523946</v>
+        <v>3553.537024987068</v>
       </c>
       <c r="N26" t="n">
-        <v>4728.273641396618</v>
+        <v>4118.58008885974</v>
       </c>
       <c r="O26" t="n">
-        <v>5638.428524337362</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P26" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q26" t="n">
         <v>6931.116362236997</v>
@@ -6366,25 +6366,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="D28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="E28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="F28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="G28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="H28" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I28" t="n">
         <v>140.96</v>
@@ -6429,13 +6429,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="W28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y28" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="29">
@@ -6445,16 +6445,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C29" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D29" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E29" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F29" t="n">
         <v>894.2358041069906</v>
@@ -6469,10 +6469,10 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J29" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K29" t="n">
-        <v>2550.716641651425</v>
+        <v>1936.671378010443</v>
       </c>
       <c r="L29" t="n">
         <v>3681.051378010443</v>
@@ -6502,19 +6502,19 @@
         <v>6116.713394464005</v>
       </c>
       <c r="U29" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V29" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W29" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X29" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y29" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="30">
@@ -6572,7 +6572,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R30" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S30" t="n">
         <v>5159.222422432123</v>
@@ -6682,19 +6682,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C32" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D32" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E32" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F32" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G32" t="n">
         <v>492.3327682960356</v>
@@ -6709,7 +6709,7 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K32" t="n">
-        <v>2124.71495243113</v>
+        <v>1936.671378010443</v>
       </c>
       <c r="L32" t="n">
         <v>3681.051378010443</v>
@@ -6733,25 +6733,25 @@
         <v>7048</v>
       </c>
       <c r="S32" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T32" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U32" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V32" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W32" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X32" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y32" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="33">
@@ -6809,7 +6809,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R33" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S33" t="n">
         <v>5159.222422432123</v>
@@ -6843,19 +6843,19 @@
         <v>307.8416045893196</v>
       </c>
       <c r="C34" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="D34" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="E34" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="F34" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="G34" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="H34" t="n">
         <v>239.3480243885944</v>
@@ -6946,19 +6946,19 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K35" t="n">
-        <v>1415.008586083262</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L35" t="n">
-        <v>2819.17922466306</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M35" t="n">
-        <v>3301.358424176563</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N35" t="n">
-        <v>3866.401488049235</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O35" t="n">
-        <v>4776.556370989979</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P35" t="n">
         <v>6474.295852434775</v>
@@ -7046,7 +7046,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R36" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S36" t="n">
         <v>5159.222422432123</v>
@@ -7134,19 +7134,19 @@
         <v>307.8416045893196</v>
       </c>
       <c r="U37" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="V37" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="W37" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="X37" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="Y37" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
     </row>
     <row r="38">
@@ -7180,16 +7180,16 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J38" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K38" t="n">
-        <v>1415.008586083262</v>
+        <v>1936.671378010443</v>
       </c>
       <c r="L38" t="n">
-        <v>2595.354589746543</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M38" t="n">
-        <v>3077.533789260046</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N38" t="n">
         <v>4728.273641396618</v>
@@ -7216,7 +7216,7 @@
         <v>5461.408922542916</v>
       </c>
       <c r="V38" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W38" t="n">
         <v>4181.776441881509</v>
@@ -7283,7 +7283,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R39" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S39" t="n">
         <v>5159.222422432123</v>
@@ -7314,22 +7314,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="C40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="D40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="E40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="F40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="G40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="H40" t="n">
         <v>140.96</v>
@@ -7368,22 +7368,22 @@
         <v>307.8416045893196</v>
       </c>
       <c r="T40" t="n">
-        <v>293.2980670266921</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="U40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="V40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="W40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="X40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="Y40" t="n">
-        <v>140.96</v>
+        <v>307.8416045893196</v>
       </c>
     </row>
     <row r="41">
@@ -7551,25 +7551,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="C43" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="D43" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="E43" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="F43" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="G43" t="n">
-        <v>307.8416045893196</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="H43" t="n">
-        <v>140.96</v>
+        <v>239.3480243885944</v>
       </c>
       <c r="I43" t="n">
         <v>140.96</v>
@@ -7642,7 +7642,7 @@
         <v>1301.812859071671</v>
       </c>
       <c r="F44" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G44" t="n">
         <v>492.3327682960356</v>
@@ -7657,22 +7657,22 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K44" t="n">
-        <v>1415.008586083262</v>
+        <v>1936.671378010443</v>
       </c>
       <c r="L44" t="n">
-        <v>3071.357825473565</v>
+        <v>3681.051378010443</v>
       </c>
       <c r="M44" t="n">
-        <v>3553.537024987068</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N44" t="n">
-        <v>4118.58008885974</v>
+        <v>4728.273641396618</v>
       </c>
       <c r="O44" t="n">
-        <v>5028.734971800483</v>
+        <v>5638.428524337362</v>
       </c>
       <c r="P44" t="n">
-        <v>5864.602299897897</v>
+        <v>6474.295852434775</v>
       </c>
       <c r="Q44" t="n">
         <v>6931.116362236997</v>
@@ -7788,22 +7788,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H46" t="n">
         <v>140.96</v>
@@ -7848,16 +7848,16 @@
         <v>307.8416045893196</v>
       </c>
       <c r="V46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
   </sheetData>
@@ -8698,10 +8698,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>716.8751175230994</v>
+        <v>526.9321130577587</v>
       </c>
       <c r="L11" t="n">
-        <v>645.1956588512421</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8935,10 +8935,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>716.8751175230994</v>
+        <v>526.9321130577587</v>
       </c>
       <c r="L14" t="n">
-        <v>645.1956588512421</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9403,16 +9403,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K20" t="n">
-        <v>716.8751175230994</v>
+        <v>433.9782470873015</v>
       </c>
       <c r="L20" t="n">
-        <v>721.547474042929</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9427,10 +9427,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R20" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9640,16 +9640,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>567.8446588919048</v>
       </c>
       <c r="L23" t="n">
-        <v>835.138663316583</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9661,13 +9661,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q23" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>205.6211561225439</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         <v>716.8751175230994</v>
       </c>
       <c r="L26" t="n">
-        <v>645.1956588512421</v>
+        <v>29.34358558166878</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9901,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R26" t="n">
         <v>294.54111633436</v>
@@ -10117,13 +10117,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J29" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>716.8751175230994</v>
+        <v>526.9321130577587</v>
       </c>
       <c r="L29" t="n">
-        <v>214.8909222650855</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10357,10 +10357,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>716.8751175230994</v>
+        <v>526.9321130577587</v>
       </c>
       <c r="L32" t="n">
-        <v>645.1956588512421</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10594,10 +10594,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L35" t="n">
-        <v>491.4928437002175</v>
+        <v>645.1956588512421</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10828,19 +10828,19 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>96.62737647160202</v>
       </c>
       <c r="L38" t="n">
-        <v>265.4073538855534</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -11305,10 +11305,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>526.9321130577587</v>
       </c>
       <c r="L44" t="n">
-        <v>746.2187031047679</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11323,7 +11323,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>294.54111633436</v>
@@ -23266,67 +23266,67 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>1.38834429297799</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23390,10 +23390,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>121.9010117936523</v>
+        <v>287.1138003370787</v>
       </c>
       <c r="C13" t="n">
         <v>272.7252466480447</v>
@@ -23439,7 +23439,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H13" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I13" t="n">
         <v>97.40414414470841</v>
@@ -23551,10 +23551,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23627,10 +23627,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S15" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>285.5362180555555</v>
       </c>
       <c r="E16" t="n">
-        <v>115.7681162935301</v>
+        <v>280.9809048369565</v>
       </c>
       <c r="F16" t="n">
         <v>274.3828559677419</v>
@@ -23676,7 +23676,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H16" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I16" t="n">
         <v>97.40414414470841</v>
@@ -23752,10 +23752,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.388344292978218</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23864,10 +23864,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>272.7252466480447</v>
       </c>
       <c r="D19" t="n">
-        <v>120.3234295121291</v>
+        <v>285.5362180555555</v>
       </c>
       <c r="E19" t="n">
         <v>280.9809048369565</v>
@@ -23913,7 +23913,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H19" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I19" t="n">
         <v>97.40414414470841</v>
@@ -23992,7 +23992,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24101,7 +24101,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>1.533699957572821</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>272.7252466480447</v>
       </c>
       <c r="D22" t="n">
-        <v>120.3234295121291</v>
+        <v>285.5362180555555</v>
       </c>
       <c r="E22" t="n">
         <v>280.9809048369565</v>
@@ -24150,7 +24150,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H22" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I22" t="n">
         <v>97.40414414470841</v>
@@ -24338,10 +24338,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24387,7 +24387,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H25" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I25" t="n">
         <v>97.40414414470841</v>
@@ -24432,7 +24432,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W25" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528329</v>
       </c>
       <c r="X25" t="n">
         <v>247.4436454301076</v>
@@ -24609,7 +24609,7 @@
         <v>287.1138003370787</v>
       </c>
       <c r="C28" t="n">
-        <v>204.9166022493267</v>
+        <v>272.7252466480447</v>
       </c>
       <c r="D28" t="n">
         <v>285.5362180555555</v>
@@ -24627,7 +24627,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W28" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528329</v>
       </c>
       <c r="X28" t="n">
         <v>247.4436454301076</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24742,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.388344292977649</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24812,10 +24812,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S30" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25049,10 +25049,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S33" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>287.1138003370787</v>
       </c>
       <c r="C34" t="n">
-        <v>272.7252466480447</v>
+        <v>204.9166022493267</v>
       </c>
       <c r="D34" t="n">
         <v>285.5362180555555</v>
@@ -25098,7 +25098,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H34" t="n">
-        <v>137.5385800635563</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25286,10 +25286,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S36" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>219.3051559383607</v>
+        <v>287.1138003370787</v>
       </c>
       <c r="C37" t="n">
         <v>272.7252466480447</v>
@@ -25374,7 +25374,7 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U37" t="n">
-        <v>150.8146863564251</v>
+        <v>83.00604195770714</v>
       </c>
       <c r="V37" t="n">
         <v>199.1703102162162</v>
@@ -25456,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>1.388344292978104</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25523,10 +25523,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S39" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25572,7 +25572,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H40" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884794</v>
       </c>
       <c r="I40" t="n">
         <v>97.40414414470841</v>
@@ -25608,10 +25608,10 @@
         <v>316.45975839138</v>
       </c>
       <c r="T40" t="n">
-        <v>184.3695790733548</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V40" t="n">
         <v>199.1703102162162</v>
@@ -25791,7 +25791,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>287.1138003370787</v>
+        <v>219.3051559383607</v>
       </c>
       <c r="C43" t="n">
         <v>272.7252466480447</v>
@@ -25809,10 +25809,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H43" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I43" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>1.388344292978218</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26046,7 +26046,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H46" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I46" t="n">
         <v>97.40414414470841</v>
@@ -26088,7 +26088,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V46" t="n">
-        <v>199.1703102162162</v>
+        <v>33.9575216727898</v>
       </c>
       <c r="W46" t="n">
         <v>226.3728098387097</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16043.16799238382</v>
+        <v>1328579.677534699</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31819.98527572747</v>
+        <v>2619441.143875608</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>47596.80255907111</v>
+        <v>3910302.610216519</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>65553.46547813999</v>
+        <v>5066546.63120633</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>83510.12839720887</v>
+        <v>6222790.65219614</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>101466.7913162777</v>
+        <v>7379034.673185941</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>119423.4542353466</v>
+        <v>8535278.694175741</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>137380.1171544155</v>
+        <v>9691522.715165541</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>155336.7800734843</v>
+        <v>10847766.73615534</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>173293.4429925532</v>
+        <v>12004010.75714514</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>191250.1059116221</v>
+        <v>13160254.77813494</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>209206.7688306909</v>
+        <v>14316498.79912475</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>227163.43174976</v>
+        <v>15472742.82011457</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>245120.0946688291</v>
+        <v>16628986.84110439</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>263076.7575878982</v>
+        <v>17785230.86209421</v>
       </c>
     </row>
   </sheetData>
@@ -26322,10 +26322,10 @@
         <v>913048.3542411312</v>
       </c>
       <c r="C2" t="n">
-        <v>913048.3542411312</v>
+        <v>913048.3542411311</v>
       </c>
       <c r="D2" t="n">
-        <v>913048.3542411312</v>
+        <v>913048.3542411313</v>
       </c>
       <c r="E2" t="n">
         <v>817831.1367976688</v>
@@ -26334,16 +26334,16 @@
         <v>817831.1367976688</v>
       </c>
       <c r="G2" t="n">
-        <v>817831.1367976685</v>
+        <v>817831.1367976688</v>
       </c>
       <c r="H2" t="n">
-        <v>817831.136797669</v>
+        <v>817831.1367976689</v>
       </c>
       <c r="I2" t="n">
+        <v>817831.1367976692</v>
+      </c>
+      <c r="J2" t="n">
         <v>817831.1367976689</v>
-      </c>
-      <c r="J2" t="n">
-        <v>817831.1367976688</v>
       </c>
       <c r="K2" t="n">
         <v>817831.1367976688</v>
@@ -26355,13 +26355,13 @@
         <v>817831.1367976688</v>
       </c>
       <c r="N2" t="n">
-        <v>817831.1367976688</v>
+        <v>817831.1367976689</v>
       </c>
       <c r="O2" t="n">
+        <v>817831.1367976686</v>
+      </c>
+      <c r="P2" t="n">
         <v>817831.1367976685</v>
-      </c>
-      <c r="P2" t="n">
-        <v>817831.1367976688</v>
       </c>
     </row>
     <row r="3">
@@ -26429,7 +26429,7 @@
         <v>113919.326896347</v>
       </c>
       <c r="D4" t="n">
-        <v>113616.966226414</v>
+        <v>113616.9662264139</v>
       </c>
       <c r="E4" t="n">
         <v>38928.93672769592</v>
@@ -26444,7 +26444,7 @@
         <v>38928.93672769592</v>
       </c>
       <c r="I4" t="n">
-        <v>38928.9367276959</v>
+        <v>38928.93672769592</v>
       </c>
       <c r="J4" t="n">
         <v>38928.93672769592</v>
@@ -26456,7 +26456,7 @@
         <v>38928.93672769592</v>
       </c>
       <c r="M4" t="n">
-        <v>38928.93672769591</v>
+        <v>38928.93672769592</v>
       </c>
       <c r="N4" t="n">
         <v>38928.93672769592</v>
@@ -26530,10 +26530,10 @@
         <v>-1418478.923709697</v>
       </c>
       <c r="C6" t="n">
-        <v>626522.0273447842</v>
+        <v>626522.0273447841</v>
       </c>
       <c r="D6" t="n">
-        <v>626824.3880147173</v>
+        <v>626824.3880147174</v>
       </c>
       <c r="E6" t="n">
         <v>639922.8000699729</v>
@@ -26542,16 +26542,16 @@
         <v>639922.8000699729</v>
       </c>
       <c r="G6" t="n">
-        <v>639922.8000699726</v>
+        <v>639922.8000699729</v>
       </c>
       <c r="H6" t="n">
-        <v>639922.8000699731</v>
+        <v>639922.800069973</v>
       </c>
       <c r="I6" t="n">
-        <v>639922.800069973</v>
+        <v>639922.8000699733</v>
       </c>
       <c r="J6" t="n">
-        <v>19698.80006997287</v>
+        <v>19698.80006997299</v>
       </c>
       <c r="K6" t="n">
         <v>639922.8000699729</v>
@@ -26563,13 +26563,13 @@
         <v>639922.8000699729</v>
       </c>
       <c r="N6" t="n">
-        <v>639922.8000699729</v>
+        <v>639922.800069973</v>
       </c>
       <c r="O6" t="n">
+        <v>639922.8000699728</v>
+      </c>
+      <c r="P6" t="n">
         <v>639922.8000699726</v>
-      </c>
-      <c r="P6" t="n">
-        <v>639922.8000699729</v>
       </c>
     </row>
   </sheetData>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27559,7 +27559,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.388344292978275</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27605,10 +27605,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.533699957573049</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.533699957573035</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27690,7 +27690,7 @@
         <v>97.40414414470841</v>
       </c>
       <c r="J4" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27732,7 +27732,7 @@
         <v>226.3728098387097</v>
       </c>
       <c r="X4" t="n">
-        <v>247.4436454301076</v>
+        <v>398.6086814110912</v>
       </c>
       <c r="Y4" t="n">
         <v>287.4653528494624</v>
@@ -27760,10 +27760,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H5" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27927,7 +27927,7 @@
         <v>97.40414414470841</v>
       </c>
       <c r="J7" t="n">
-        <v>36.43098678260856</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27945,7 +27945,7 @@
         <v>268.0582198167198</v>
       </c>
       <c r="P7" t="n">
-        <v>400</v>
+        <v>368.8061924102448</v>
       </c>
       <c r="Q7" t="n">
         <v>400</v>
@@ -27957,7 +27957,7 @@
         <v>400</v>
       </c>
       <c r="T7" t="n">
-        <v>198.7676812603561</v>
+        <v>266.3924756327198</v>
       </c>
       <c r="U7" t="n">
         <v>150.8146863564251</v>
@@ -28000,7 +28000,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28051,7 +28051,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1.388344292978161</v>
       </c>
     </row>
     <row r="9">
@@ -28179,10 +28179,10 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O10" t="n">
+        <v>400</v>
+      </c>
+      <c r="P10" t="n">
         <v>388.0294482079483</v>
-      </c>
-      <c r="P10" t="n">
-        <v>400</v>
       </c>
       <c r="Q10" t="n">
         <v>400</v>
@@ -34986,7 +34986,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>302.1616117352398</v>
+        <v>150.9965757542561</v>
       </c>
       <c r="K4" t="n">
         <v>17.57070160869296</v>
@@ -35028,7 +35028,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>151.1650359809837</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -35223,7 +35223,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>187.4275625368647</v>
+        <v>150.9965757542561</v>
       </c>
       <c r="K7" t="n">
         <v>17.57070160869296</v>
@@ -35241,7 +35241,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>31.19380758975518</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35253,7 +35253,7 @@
         <v>83.54024160861997</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>67.62479437236371</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -35475,10 +35475,10 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>119.9712283912285</v>
+        <v>131.9417801832802</v>
       </c>
       <c r="P10" t="n">
-        <v>31.19380758975518</v>
+        <v>19.22325579770347</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35542,10 +35542,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K11" t="n">
-        <v>1463.98940395526</v>
+        <v>1274.04639948992</v>
       </c>
       <c r="L11" t="n">
-        <v>1572.05699553466</v>
+        <v>1762</v>
       </c>
       <c r="M11" t="n">
         <v>487.0496964782857</v>
@@ -35779,10 +35779,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K14" t="n">
-        <v>1463.98940395526</v>
+        <v>1274.04639948992</v>
       </c>
       <c r="L14" t="n">
-        <v>1572.05699553466</v>
+        <v>1762</v>
       </c>
       <c r="M14" t="n">
         <v>487.0496964782857</v>
@@ -36247,16 +36247,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J20" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K20" t="n">
-        <v>1463.989403955261</v>
+        <v>1181.092533519462</v>
       </c>
       <c r="L20" t="n">
-        <v>1648.408810726346</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M20" t="n">
         <v>487.0496964782857</v>
@@ -36271,10 +36271,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q20" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R20" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36484,16 +36484,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K23" t="n">
-        <v>747.114286432161</v>
+        <v>1314.958945324066</v>
       </c>
       <c r="L23" t="n">
-        <v>1762</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M23" t="n">
         <v>487.0496964782857</v>
@@ -36505,13 +36505,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P23" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q23" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R23" t="n">
-        <v>29.14432035687434</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36730,7 +36730,7 @@
         <v>1463.98940395526</v>
       </c>
       <c r="L26" t="n">
-        <v>1572.05699553466</v>
+        <v>956.2049222650858</v>
       </c>
       <c r="M26" t="n">
         <v>487.0496964782857</v>
@@ -36745,7 +36745,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q26" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R26" t="n">
         <v>118.0642805686905</v>
@@ -36961,13 +36961,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J29" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K29" t="n">
-        <v>1463.98940395526</v>
+        <v>1274.04639948992</v>
       </c>
       <c r="L29" t="n">
-        <v>1141.752258948503</v>
+        <v>1762</v>
       </c>
       <c r="M29" t="n">
         <v>487.0496964782857</v>
@@ -37201,10 +37201,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K32" t="n">
-        <v>1463.98940395526</v>
+        <v>1274.04639948992</v>
       </c>
       <c r="L32" t="n">
-        <v>1572.05699553466</v>
+        <v>1762</v>
       </c>
       <c r="M32" t="n">
         <v>487.0496964782857</v>
@@ -37438,10 +37438,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K35" t="n">
-        <v>747.114286432161</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L35" t="n">
-        <v>1418.354180383635</v>
+        <v>1572.05699553466</v>
       </c>
       <c r="M35" t="n">
         <v>487.0496964782857</v>
@@ -37453,7 +37453,7 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P35" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q35" t="n">
         <v>461.4348583860824</v>
@@ -37672,19 +37672,19 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J38" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K38" t="n">
-        <v>747.114286432161</v>
+        <v>843.741662903763</v>
       </c>
       <c r="L38" t="n">
-        <v>1192.268690568971</v>
+        <v>1762</v>
       </c>
       <c r="M38" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N38" t="n">
-        <v>1667.413992057144</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O38" t="n">
         <v>919.3483666068121</v>
@@ -38149,10 +38149,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K44" t="n">
-        <v>747.114286432161</v>
+        <v>1274.04639948992</v>
       </c>
       <c r="L44" t="n">
-        <v>1673.080039788185</v>
+        <v>1762</v>
       </c>
       <c r="M44" t="n">
         <v>487.0496964782857</v>
@@ -38167,7 +38167,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q44" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R44" t="n">
         <v>118.0642805686905</v>
